--- a/medicine/Mort/Peine_de_mort_en_Illinois/Peine_de_mort_en_Illinois.xlsx
+++ b/medicine/Mort/Peine_de_mort_en_Illinois/Peine_de_mort_en_Illinois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La peine de mort dans l'Illinois est officiellement abolie depuis le 9 mars 2011, les condamnations étant commuée en prison à vie sans possibilité de libération conditionnelle. Le dernier exécuté est Andrew Kokoraleis, membre du « Ripper Crew (en) » (« clique des assassins ») le 17 mars 1999.
 </t>
@@ -511,13 +523,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Illinois utilisa la pendaison comme mode de mise à mort jusqu'en 1928 (la dernière exécution, celle de Charles Birger (en), fut publique), date à laquelle la chaise électrique se substitua à elle[1]. En 1962, la dernière exécution par électrocution dans l'État a lieu à la prison du comté de Cook. L'injection létale fut adoptée dans l'État en 1990[2], mais la chaise électrique resta opérationnelle en Illinois pour remplacer l'injection létale, lorsque celle-ci n'aurait pu être pratiquée, ce qui n'est jamais arrivé.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Illinois utilisa la pendaison comme mode de mise à mort jusqu'en 1928 (la dernière exécution, celle de Charles Birger (en), fut publique), date à laquelle la chaise électrique se substitua à elle. En 1962, la dernière exécution par électrocution dans l'État a lieu à la prison du comté de Cook. L'injection létale fut adoptée dans l'État en 1990, mais la chaise électrique resta opérationnelle en Illinois pour remplacer l'injection létale, lorsque celle-ci n'aurait pu être pratiquée, ce qui n'est jamais arrivé.
 L'Illinois fut jusqu'en 2003 un État comme les autres où la peine de mort avait été rétablie, plus de 170 personnes y avaient été condamnées et peu (12) avaient été exécutées dans les années 1990 (5 en 1995), dont le tueur en série John Wayne Gacy en 1994. 
-En 1998, Anthony Porter (en) échappa à son exécution à 50 heures près sur la base de son incapacité à comprendre le sens de sa peine dû à son Q.I. puis, peu de temps après, libéré sur la base de preuves rassemblées par une équipe d'étudiants en journalisme ; cette commutation, précédée et suivie d'autres (20 au total), fit naitre des doutes sur le système judiciaire de l’État. Le 11 janvier 2003, le gouverneur républicain George Ryan commua les peines des 167 condamnés à mort en peines perpétuelles ou, pour 3 d'entre eux, en 40 ans[3],[4], geste que ses adversaires attribuent au fait qu'il ait été rendu inéligible par son impopularité et accusé de conspiration, de racket et de fraude[5],[6].
+En 1998, Anthony Porter (en) échappa à son exécution à 50 heures près sur la base de son incapacité à comprendre le sens de sa peine dû à son Q.I. puis, peu de temps après, libéré sur la base de preuves rassemblées par une équipe d'étudiants en journalisme ; cette commutation, précédée et suivie d'autres (20 au total), fit naitre des doutes sur le système judiciaire de l’État. Le 11 janvier 2003, le gouverneur républicain George Ryan commua les peines des 167 condamnés à mort en peines perpétuelles ou, pour 3 d'entre eux, en 40 ans geste que ses adversaires attribuent au fait qu'il ait été rendu inéligible par son impopularité et accusé de conspiration, de racket et de fraude,.
 Depuis, plus de 14 personnes ont été condamnées à mort et de nombreuses réformes ont été entreprises, notamment sous l'impulsion du sénateur Barack Obama qui a fait voter une loi qui oblige les policiers à filmer les interrogatoires dans les affaires de peine capitale. 
-Le 9 mars 2011, la peine de mort y a été abolie et le gouverneur décida de commuer les peines des 15 personnes encore condamnées à la peine capitale[7].
+Le 9 mars 2011, la peine de mort y a été abolie et le gouverneur décida de commuer les peines des 15 personnes encore condamnées à la peine capitale.
 </t>
         </is>
       </c>
@@ -546,10 +560,12 @@
           <t>Exécutions entre 1977 et 2011</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les exécutions avait lieu à Tamms, au Tamms Correctional Center.
-Avant l'abolition en 2011 le couloir de la mort de l'Illinois comptait 15 condamnés[8]. Entre 1977 et 2011, 200 condamnés ont été graciés dans l'Illinois[9],[10]
+Avant l'abolition en 2011 le couloir de la mort de l'Illinois comptait 15 condamnés. Entre 1977 et 2011, 200 condamnés ont été graciés dans l'Illinois,
 </t>
         </is>
       </c>
@@ -578,7 +594,9 @@
           <t>Crimes capitaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
